--- a/eqServer/src/test/resources/IT100-2.xlsx
+++ b/eqServer/src/test/resources/IT100-2.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Questions" sheetId="3" r:id="rId2"/>
     <sheet name="BlackWhite List" sheetId="4" r:id="rId3"/>
-    <sheet name="Answers" sheetId="11" r:id="rId4"/>
-    <sheet name="Timer" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>sharing folder</t>
   </si>
@@ -228,168 +226,10 @@
     <t>Fall</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>2, 3, 4, 5, 6, 1</t>
-  </si>
-  <si>
-    <t>Q1/1/CBDAE/C</t>
-  </si>
-  <si>
-    <t>Q2/1/BEDCA/E</t>
-  </si>
-  <si>
-    <t>Q3/1/a</t>
-  </si>
-  <si>
-    <t>Q4/1/EABCDF/A</t>
-  </si>
-  <si>
-    <t>Q5/1/ADBC/B</t>
-  </si>
-  <si>
-    <t>Q6/1/AB/A</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
     <t>2nd MidTerm</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>2, 6, 5, 4, 3, 1</t>
-  </si>
-  <si>
-    <t>Q1/1/DEABC/</t>
-  </si>
-  <si>
-    <t>Q2/1/CEADB/E</t>
-  </si>
-  <si>
-    <t>Q3/1/</t>
-  </si>
-  <si>
-    <t>Q4/1/ACBEDF/A</t>
-  </si>
-  <si>
-    <t>Q5/1/DBCA/</t>
-  </si>
-  <si>
-    <t>Q6/1/BA/A</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>00:05</t>
-  </si>
-  <si>
-    <t>00:01</t>
-  </si>
-  <si>
-    <t>ABD115</t>
-  </si>
-  <si>
-    <t>sami alfattani</t>
-  </si>
-  <si>
-    <t>1, 3, 5, 4, 6, 2</t>
-  </si>
-  <si>
-    <t>Q1/1/BEACD/E</t>
-  </si>
-  <si>
-    <t>Q2/1/ABEDC/C</t>
-  </si>
-  <si>
-    <t>Q4/1/CADBEF/</t>
-  </si>
-  <si>
-    <t>Q5/1/CBDA/</t>
-  </si>
-  <si>
-    <t>Q6/1/BA/</t>
-  </si>
-  <si>
-    <t>00:22</t>
-  </si>
-  <si>
-    <t>00:04</t>
-  </si>
-  <si>
-    <t>00:20</t>
-  </si>
-  <si>
-    <t>00:02</t>
-  </si>
-  <si>
-    <t>00:08</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>6, 2, 4, 3, 1, 5</t>
-  </si>
-  <si>
-    <t>Q1/1/BADCE/</t>
-  </si>
-  <si>
-    <t>Q2/1/BDCEA/A</t>
-  </si>
-  <si>
-    <t>Q3/1/iiililuilu,,u,ui,
-yukk
-kkkk
-kk
-bbbbbb
-bbbbb</t>
-  </si>
-  <si>
-    <t>Q4/1/DECABF/C</t>
-  </si>
-  <si>
-    <t>Q5/1/DCBA/C</t>
-  </si>
-  <si>
-    <t>Q6/1/BA/B</t>
-  </si>
-  <si>
-    <t>01:28</t>
   </si>
   <si>
     <t>1</t>
@@ -398,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -561,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,9 +492,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -753,6 +590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -788,6 +642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -970,14 +841,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -988,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +871,7 @@
         <v>Each student will get different order of questions randomly.This option is good to avoid cheating.</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +883,7 @@
         <v>Any student is allowed to join the exam</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +895,7 @@
         <v>Specify the total time to be the time limit of the whole exam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +915,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>60</v>
       </c>
@@ -1052,7 +923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>62</v>
       </c>
@@ -1060,15 +931,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>65</v>
       </c>
@@ -1076,7 +947,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
         <v>66</v>
       </c>
@@ -1084,12 +955,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1127,34 +998,34 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.88671875" style="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="9.140625" style="26" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="26" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
+    <col min="4" max="9" width="9.109375" style="26" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" style="26" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.109375" style="27" collapsed="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1229,7 +1100,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1263,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1289,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -1325,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1357,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1415,17 +1286,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="29" collapsed="1"/>
+    <col min="2" max="2" width="16.33203125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>51</v>
       </c>
@@ -1433,7 +1304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>53</v>
       </c>
@@ -1441,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>55</v>
       </c>
@@ -1449,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>57</v>
       </c>
@@ -1461,458 +1332,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>SUMIF(D2:O2,  "&gt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <f>SUMIF(D3:O3,  "&gt;0")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>SUMIF(D4:O4,  "&gt;0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f>SUMIF(D5:O5,  "&gt;0")</f>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2">
-        <f>SUM(C2:H2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3">
-        <f>SUM(C3:H3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4">
-        <f>SUM(C4:H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5">
-        <f>SUM(C5:H5)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/eqServer/src/test/resources/IT100-2.xlsx
+++ b/eqServer/src/test/resources/IT100-2.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDC332-C23A-4319-93FD-D78FEE7AEED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Questions" sheetId="3" r:id="rId2"/>
-    <sheet name="BlackWhite List" sheetId="4" r:id="rId3"/>
-    <sheet name="test" sheetId="5" r:id="rId4"/>
+    <sheet name="BlackWhite_List" sheetId="4" r:id="rId3"/>
+    <sheet name="Answers" sheetId="6" r:id="rId4"/>
+    <sheet name="Timer" sheetId="7" r:id="rId5"/>
+    <sheet name="test" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>sharing folder</t>
   </si>
@@ -166,13 +177,6 @@
     <t>A1 =&lt; B1</t>
   </si>
   <si>
-    <t>As an example of using "Filter" tool is:
-When the user need to delete All students who got less than 60 and keep the others.</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>cell.png</t>
   </si>
   <si>
@@ -261,16 +265,150 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>DDD2</t>
+  </si>
+  <si>
+    <t>ffe</t>
+  </si>
+  <si>
+    <t>Q1`0.5`DBAEC`B</t>
+  </si>
+  <si>
+    <t>Q2`0.5`DBECA`D</t>
+  </si>
+  <si>
+    <t>Q4`0.5`EADBC`A</t>
+  </si>
+  <si>
+    <t>OA0422</t>
+  </si>
+  <si>
+    <t>abdualrhman aljdaani</t>
+  </si>
+  <si>
+    <t>Q1`0.5`DECAB`E</t>
+  </si>
+  <si>
+    <t>Q2`0.5`ACEBD`A</t>
+  </si>
+  <si>
+    <t>Q5`2`1-select the text u wanna hyperlink
+2-then right click
+3- and choose the hyperlink then copy the link and put it there</t>
+  </si>
+  <si>
+    <t>OBB125</t>
+  </si>
+  <si>
+    <t>hassan abdullah magboul</t>
+  </si>
+  <si>
+    <t>Q1`0.5`EBDAC`A</t>
+  </si>
+  <si>
+    <t>Q2`0.5`DCABE`A</t>
+  </si>
+  <si>
+    <t>Q4`0.5`CEBAD`A</t>
+  </si>
+  <si>
+    <t>PA0145</t>
+  </si>
+  <si>
+    <t>yahya hassan Algasem</t>
+  </si>
+  <si>
+    <t>Q1`0.5`ACBED`A</t>
+  </si>
+  <si>
+    <t>Q2`0.5`ECABD`A</t>
+  </si>
+  <si>
+    <t>Q4`0.5`CDEBA`A</t>
+  </si>
+  <si>
+    <t>Q5`2`select the word google then insert - links -hyperlink</t>
+  </si>
+  <si>
+    <t>PA0567</t>
+  </si>
+  <si>
+    <t>almutasimbilla</t>
+  </si>
+  <si>
+    <t>Q1`0.5`ADEBC`A</t>
+  </si>
+  <si>
+    <t>Q2`0.5`CEDAB`A</t>
+  </si>
+  <si>
+    <t>Q4`0.5`CBEDA`A</t>
+  </si>
+  <si>
+    <t>Q5`2`underline the word or sentese you want to make the hyperlink to. then click on hyperlink under insert it will open a box. you will see addrese add the link in the empty space the click on ok.</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>00:04</t>
+  </si>
+  <si>
+    <t>00:01</t>
+  </si>
+  <si>
+    <t>Q5`2`</t>
+  </si>
+  <si>
+    <t>Q5`2`A</t>
+  </si>
+  <si>
+    <t>Q3`0.5`A</t>
+  </si>
+  <si>
+    <t>Q3`0.5`A`my notes</t>
+  </si>
+  <si>
+    <t>Q4`0.5`ABDEC`A`my notes</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +435,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,6 +664,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -862,21 +1009,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -899,7 +1046,7 @@
         <v>Each student will get different order of questions randomly.This option is good to avoid cheating.</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -911,7 +1058,7 @@
         <v>Any student is allowed to join the exam</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -923,7 +1070,7 @@
         <v>Specify the total time to be the time limit of the whole exam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -934,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -943,52 +1090,52 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="B10" s="32">
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -997,21 +1144,21 @@
     <protectedRange algorithmName="SHA-512" hashValue="cyH+r25KG5q1Fjk/41Wyc+fUzGcjUbf0KqlgxwMZLvPDgGBXyIW2H3PeJfQPlBXGZ/8PaHZqPqIynlqsVFd/Bg==" saltValue="sVzJLxVeTfyccrD35TGxig==" spinCount="100000" sqref="C3" name="Range1_1"/>
   </protectedRanges>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Exam Level,Question Level"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Sequence,Random"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"All Students,White List,Black List,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1019,41 +1166,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.90625" style="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="9.109375" style="26" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" style="26" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.109375" style="27" collapsed="1"/>
+    <col min="4" max="9" width="9.08984375" style="26" collapsed="1"/>
+    <col min="10" max="10" width="12.90625" style="26" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.08984375" style="27" collapsed="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1118,7 +1265,7 @@
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" s="23">
         <v>1</v>
@@ -1128,7 +1275,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1154,7 +1301,9 @@
         <v>35</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="K4" s="23">
         <v>1</v>
       </c>
@@ -1162,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1188,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -1224,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1232,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>27</v>
@@ -1256,54 +1405,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="23">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Multiple Choice,Blank Field"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Time" error="This property is mandatory if the exam mode is set to 'Question Level'._x000a_put the value (in minutes) to be accepted" sqref="L3:L8">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Time" error="This property is mandatory if the exam mode is set to 'Question Level'._x000a_put the value (in minutes) to be accepted" sqref="L3:L7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Wrong Mark" error="The value should be 0 or more._x000a_non-Numeric values are not accepted." sqref="K3:K8">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Wrong Mark" error="The value should be 0 or more._x000a_non-Numeric values are not accepted." sqref="K3:K7" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{3BCB0565-FFD2-4257-B4DD-E214C42C26E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1311,49 +1430,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="29" collapsed="1"/>
-    <col min="2" max="2" width="16.33203125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.08984375" style="29" collapsed="1"/>
+    <col min="2" max="2" width="16.36328125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B3" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B4" s="29" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1363,70 +1482,546 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9F1D31-C19F-45F6-B46C-A4E25CA67F0B}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.6328125" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUMIF(D2:M2,  "&gt;0")</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUMIF(D3:M3,  "&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(D4:M4,  "&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUMIF(D5:M5,  "&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>SUMIF(D6:M6,  "&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4784866E-9D9C-485F-879D-B421FB3136F2}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="6.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>232</v>

--- a/eqServer/src/test/resources/IT100-2.xlsx
+++ b/eqServer/src/test/resources/IT100-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDC332-C23A-4319-93FD-D78FEE7AEED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FD73D-E30E-4250-9174-A12D7364789D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>sharing folder</t>
   </si>
@@ -291,12 +291,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>DDD2</t>
-  </si>
-  <si>
-    <t>ffe</t>
-  </si>
-  <si>
     <t>Q1`0.5`DBAEC`B</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>00:00</t>
   </si>
   <si>
-    <t>00:04</t>
-  </si>
-  <si>
     <t>00:01</t>
   </si>
   <si>
@@ -399,6 +390,21 @@
   </si>
   <si>
     <t>1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>XXX111</t>
+  </si>
+  <si>
+    <t>Sami Alfattani</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>05:30</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -671,6 +677,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1433,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1486,7 +1493,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,40 +1559,40 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>0.5</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1597,40 +1604,40 @@
     </row>
     <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>0.5</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1642,40 +1649,40 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
       </c>
       <c r="E4">
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I4">
         <v>0.5</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>0.5</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1687,40 +1694,40 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
       </c>
       <c r="E5">
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I5">
         <v>0.5</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>0.5</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1732,40 +1739,40 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K6">
         <v>0.5</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1785,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4784866E-9D9C-485F-879D-B421FB3136F2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1824,132 +1831,132 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
